--- a/Gestion Stock 2025/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2025.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>2024218976</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>19005180</t>
+  </si>
+  <si>
+    <t>Fraction ouled hedim</t>
   </si>
 </sst>
 </file>
@@ -3436,7 +3445,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3495,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="18">
         <f>SUMIF(F7:F33,"Elimination*",G7:G33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3548,7 +3557,7 @@
       <c r="J5" s="32"/>
       <c r="K5" s="20">
         <f>SUM(K2:K4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3610,15 +3619,27 @@
         <f>+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10">
+        <v>80</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45860</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>

--- a/Gestion Stock 2025/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Seghouane/Suivie pose Compteur Seghouane 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Seghouane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB41088F-10D1-46F7-BBF9-A3766466F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53653F66-7AA7-418E-AF20-519502AC7B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="12" r:id="rId1"/>
@@ -24,10 +24,12 @@
     <sheet name="SEPTEMBRE 2025" sheetId="20" r:id="rId9"/>
     <sheet name="OCTOBRE 2025" sheetId="21" r:id="rId10"/>
     <sheet name="NOVEMBRE 2025" sheetId="22" r:id="rId11"/>
+    <sheet name="DECEMBRE 2025" sheetId="23" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'AOUT 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'AVRIL 2025'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'DECEMBRE 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'FEVRIER 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JANVIER 2025'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'JUILLET 2025'!$1:$6</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -306,6 +308,9 @@
   </si>
   <si>
     <t>2024004544</t>
+  </si>
+  <si>
+    <t>Mois de DECEMBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -758,6 +763,61 @@
         <a:xfrm flipH="1">
           <a:off x="600085" y="1704975"/>
           <a:ext cx="4733915" cy="7219950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9535</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Connecteur droit 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8672774D-57B1-478B-AB8F-3E6F841B7713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="600085" y="1333500"/>
+          <a:ext cx="4714865" cy="7591425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3435,7 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3625,6 +3685,786 @@
       <c r="F8" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <f t="shared" ref="A9:A46" si="0">+A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A8F02-5D12-4FAD-813E-32C82801F159}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="17">
+        <f>SUMIF(F7:F33,"Elimination*",G7:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="17">
+        <f>SUMIF(F7:F33,"NB*",G7:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="17">
+        <f>SUMIF(F7:F33,"Ve*",G7:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="19">
+        <f>SUM(K2:K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <f>+A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="16">
         <v>1</v>
       </c>
